--- a/mereni/1sval3.xlsx
+++ b/mereni/1sval3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarekDarsaU\Documents\Škola\6.Semestr\Bakalarka\mereni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0141F4-1DB0-4FC8-8FBA-B4A64055A0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92B7E78-4B6F-45B9-98D7-F5602F4D7D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,36 +101,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -191,8 +161,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.4187226596675412E-2"/>
-                  <c:y val="7.3657407407407408E-2"/>
+                  <c:x val="-4.6942038495188104E-2"/>
+                  <c:y val="-1.7343977836103822E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -227,102 +197,84 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet!$B$2:$B$15</c:f>
+              <c:f>Sheet!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>631.524658203125</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>641.88458251953102</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>645.72650146484295</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>659.43389892578102</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>671.42919921875</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>682.64459228515602</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>697.38922119140602</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>704.71234130859295</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>714.94439697265602</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>726.53765869140602</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>735.45666503906205</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>749.98297119140602</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>761.48864746093705</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>769.99523925781205</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet!$C$2:$C$15</c:f>
+              <c:f>Sheet!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>611.997314453125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>618.95947265625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>636.535400390625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>647.879150390625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>654.34881591796795</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>670.58392333984295</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>683.709716796875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>695.56048583984295</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>703.94732666015602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21</c:v>
+                  <c:v>711.51153564453102</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>724.61273193359295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -330,7 +282,186 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0FEB-4477-BE03-C91910B4F746}"/>
+              <c16:uniqueId val="{00000000-EB88-47F9-91BA-EE2E245B2E5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hodnota fyzického senzoru</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1164260717410324E-2"/>
+                  <c:y val="-5.9336541265675127E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EB88-47F9-91BA-EE2E245B2E5F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -342,11 +473,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="40011679"/>
-        <c:axId val="40008319"/>
+        <c:axId val="755278544"/>
+        <c:axId val="755284784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40011679"/>
+        <c:axId val="755278544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -403,12 +534,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40008319"/>
+        <c:crossAx val="755284784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40008319"/>
+        <c:axId val="755284784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -465,7 +596,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40011679"/>
+        <c:crossAx val="755278544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -528,6 +659,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -539,11 +700,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet!$B$1</c:f>
+              <c:f>Sheet!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hodnota v mV</c:v>
+                  <c:v>Hodnota fyzického senzoru</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -588,8 +749,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10204505686789152"/>
-                  <c:y val="-2.3963619130941964E-2"/>
+                  <c:x val="-8.2494313210848644E-2"/>
+                  <c:y val="-4.0336103820355785E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -624,102 +785,84 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet!$A$2:$A$15</c:f>
+              <c:f>Sheet!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>611.997314453125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>618.95947265625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>636.535400390625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>647.879150390625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>654.34881591796795</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>670.58392333984295</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>683.709716796875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>695.56048583984295</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>703.94732666015602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50</c:v>
+                  <c:v>711.51153564453102</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70</c:v>
+                  <c:v>724.61273193359295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet!$B$2:$B$15</c:f>
+              <c:f>Sheet!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>631.524658203125</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>641.88458251953102</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>645.72650146484295</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>659.43389892578102</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>671.42919921875</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>682.64459228515602</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>697.38922119140602</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>704.71234130859295</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>714.94439697265602</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>726.53765869140602</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>735.45666503906205</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>749.98297119140602</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>761.48864746093705</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>769.99523925781205</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -727,204 +870,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FB48-4C70-925A-78857C2A85B0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hodnota fyzického senzoru</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.8228346456692913E-3"/>
-                  <c:y val="-6.8595800524934386E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet!$A$2:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet!$C$2:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FB48-4C70-925A-78857C2A85B0}"/>
+              <c16:uniqueId val="{00000000-6453-48B8-AB77-D85A55157B0D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -936,11 +882,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1150134031"/>
-        <c:axId val="1150134511"/>
+        <c:axId val="841437744"/>
+        <c:axId val="841439664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1150134031"/>
+        <c:axId val="841437744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,12 +943,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1150134511"/>
+        <c:crossAx val="841439664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1150134511"/>
+        <c:axId val="841439664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1150134031"/>
+        <c:crossAx val="841437744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2225,22 +2171,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>578224</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>273424</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>26894</xdr:rowOff>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104789EE-E8C2-7D98-1211-90B46D50FB02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C96D17-D875-E077-B4AE-18B80DFE6343}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,23 +2206,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>470648</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>165848</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>71717</xdr:rowOff>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD0FDE3-CA2E-DBDC-04E4-3932F7D10D96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C54D8F-9845-D66E-FFE6-1A429DBA7C03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2582,10 +2528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2609,7 +2555,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>631.524658203125</v>
+        <v>611.997314453125</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -2623,10 +2569,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>641.88458251953102</v>
+        <v>618.95947265625</v>
       </c>
       <c r="C3" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
@@ -2637,10 +2583,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>645.72650146484295</v>
+        <v>636.535400390625</v>
       </c>
       <c r="C4" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -2651,10 +2597,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="1">
-        <v>659.43389892578102</v>
+        <v>647.879150390625</v>
       </c>
       <c r="C5" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
@@ -2665,10 +2611,10 @@
         <v>25</v>
       </c>
       <c r="B6" s="1">
-        <v>671.42919921875</v>
+        <v>654.34881591796795</v>
       </c>
       <c r="C6" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
@@ -2679,10 +2625,10 @@
         <v>30</v>
       </c>
       <c r="B7" s="1">
-        <v>682.64459228515602</v>
+        <v>670.58392333984295</v>
       </c>
       <c r="C7" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
@@ -2693,10 +2639,10 @@
         <v>35</v>
       </c>
       <c r="B8" s="1">
-        <v>697.38922119140602</v>
+        <v>683.709716796875</v>
       </c>
       <c r="C8" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -2707,10 +2653,10 @@
         <v>40</v>
       </c>
       <c r="B9" s="1">
-        <v>704.71234130859295</v>
+        <v>695.56048583984295</v>
       </c>
       <c r="C9" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
@@ -2721,10 +2667,10 @@
         <v>45</v>
       </c>
       <c r="B10" s="1">
-        <v>714.94439697265602</v>
+        <v>703.94732666015602</v>
       </c>
       <c r="C10" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1">
         <v>10</v>
@@ -2735,10 +2681,10 @@
         <v>50</v>
       </c>
       <c r="B11" s="1">
-        <v>726.53765869140602</v>
+        <v>711.51153564453102</v>
       </c>
       <c r="C11" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
@@ -2749,54 +2695,12 @@
         <v>55</v>
       </c>
       <c r="B12" s="1">
-        <v>735.45666503906205</v>
+        <v>724.61273193359295</v>
       </c>
       <c r="C12" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>60</v>
-      </c>
-      <c r="B13" s="1">
-        <v>749.98297119140602</v>
-      </c>
-      <c r="C13" s="1">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>65</v>
-      </c>
-      <c r="B14" s="1">
-        <v>761.48864746093705</v>
-      </c>
-      <c r="C14" s="1">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>70</v>
-      </c>
-      <c r="B15" s="1">
-        <v>769.99523925781205</v>
-      </c>
-      <c r="C15" s="1">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1">
         <v>10</v>
       </c>
     </row>
